--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure9.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure9.xlsx
@@ -37,16 +37,16 @@
     <t>gender</t>
   </si>
   <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
     <t>admission_source_id</t>
   </si>
   <si>
-    <t>admission_type_id</t>
+    <t>age</t>
   </si>
   <si>
     <t>diabetesmed</t>
-  </si>
-  <si>
-    <t>age</t>
   </si>
   <si>
     <t>insulin</t>
@@ -79,10 +79,10 @@
     <t>number_outpatient</t>
   </si>
   <si>
-    <t>num_lab_procedures</t>
+    <t>time_in_hospital</t>
   </si>
   <si>
-    <t>time_in_hospital</t>
+    <t>num_lab_procedures</t>
   </si>
   <si>
     <t>number_diagnoses</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.304525691276914</v>
+        <v>1.304970929806347</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.297920124863901</v>
+        <v>1.296521280561695</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.242624533107293</v>
+        <v>1.240172240405393</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1.195228609334394</v>
+        <v>1.186342028003479</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -583,7 +583,7 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>1.183987535415076</v>
+        <v>1.184130385228815</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1.16925796088993</v>
+        <v>1.167396534251367</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.168467074934163</v>
+        <v>1.164740324335206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.164929856818672</v>
+        <v>1.164584118599728</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1.164219367757457</v>
+        <v>1.164560072837583</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>1.163769223538291</v>
+        <v>1.163647161414206</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1.158901452959614</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>1.154700538379251</v>
+        <v>1.132839785213243</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -770,7 +770,7 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1.144571390574773</v>
+        <v>1.132174095189508</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1.131232054600658</v>
+        <v>1.12765461834358</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.099379680619448</v>
+        <v>1.095142524854139</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -815,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9835327861141272</v>
+        <v>0.9800741851924012</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9800566102285072</v>
+        <v>0.9799307178497417</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.977558945976863</v>
+        <v>0.9774524776940658</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -866,13 +866,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9698661798528487</v>
+        <v>0.9752068981240303</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9674467544707182</v>
+        <v>0.9677651818892729</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9673619659113277</v>
+        <v>0.9669983432636579</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9666707109230623</v>
+        <v>0.9657875486281553</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9664209366123653</v>
+        <v>0.9657234088883025</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9660750683613517</v>
+        <v>0.9655645910792539</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9660577671465808</v>
+        <v>0.9643015458531128</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9653181044023796</v>
+        <v>0.9640322465681171</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9649158588839123</v>
+        <v>0.9636860996749972</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9324924379080023</v>
+        <v>0.9330806983208456</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.7148116611777616</v>
+        <v>0.733948997178691</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.6940345670909434</v>
+        <v>0.7148116611777616</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.6752424608630451</v>
+        <v>0.7015764711285034</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.673607828348278</v>
+        <v>0.6752424608630451</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1144,7 +1144,7 @@
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.5869022612420183</v>
+        <v>0.5969816793797702</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>0.5814691205097121</v>
+        <v>0.5794528145408147</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5741264628005883</v>
+        <v>0.578854440915949</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.557166072879565</v>
+        <v>0.5635773136718069</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>0.5300338291547482</v>
+        <v>0.5282350405496744</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>0.5287155492314826</v>
+        <v>0.5256038462717928</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,7 +1254,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         <v>27</v>
       </c>
       <c r="E47">
-        <v>0.5274560679273101</v>
+        <v>0.522460398843314</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,7 +1271,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.4712414332508487</v>
+        <v>0.4616103466664636</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.4616103466664636</v>
+        <v>0.4610112019472001</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4610112019472001</v>
+        <v>0.4480620839084176</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -1348,7 +1348,7 @@
         <v>28</v>
       </c>
       <c r="E52">
-        <v>0.4520532487722186</v>
+        <v>0.443689284061049</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4480620839084176</v>
+        <v>0.4334147938182976</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4190581774617468</v>
+        <v>0.4242640687119285</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1410,13 +1410,13 @@
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4129356752997117</v>
+        <v>0.4190581774617468</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4009791936316524</v>
+        <v>0.408769045728045</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.3995538202738515</v>
+        <v>0.4078183290065372</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>0.395211982144036</v>
+        <v>0.4065465461381723</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
       </c>
       <c r="E60">
-        <v>0.391971303999789</v>
+        <v>0.3984095364447978</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>0.3917247450213849</v>
+        <v>0.3916323685324674</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,7 +1509,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
@@ -1518,7 +1518,7 @@
         <v>28</v>
       </c>
       <c r="E62">
-        <v>0.385050546997131</v>
+        <v>0.3878486398128748</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E63">
-        <v>0.3826504651331737</v>
+        <v>0.3843599684153426</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E64">
-        <v>0.3825427632223676</v>
+        <v>0.3786106531625029</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1569,7 +1569,7 @@
         <v>26</v>
       </c>
       <c r="E65">
-        <v>0.3790440062884528</v>
+        <v>0.373983442466638</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E66">
-        <v>0.3695027875454239</v>
+        <v>0.3525749448928719</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1597,13 +1597,13 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3670415373508306</v>
+        <v>0.3498285100979472</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0.3631058272528684</v>
+        <v>0.3417452716843382</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3613834853232469</v>
+        <v>0.3400349285882173</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E70">
-        <v>0.3568206200700316</v>
+        <v>0.3365734442535536</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>0.3548882120291759</v>
+        <v>0.330816130186761</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1682,13 +1682,13 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3535533905932737</v>
+        <v>0.3280244060135151</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0.3468478224036415</v>
+        <v>0.3255430246059117</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3422033162555576</v>
+        <v>0.3216337604513384</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
       </c>
       <c r="E75">
-        <v>0.3422033162555576</v>
+        <v>0.3216337604513384</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,7 +1747,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -1756,7 +1756,7 @@
         <v>27</v>
       </c>
       <c r="E76">
-        <v>0.335748823865807</v>
+        <v>0.3216337604513384</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
       </c>
       <c r="E77">
-        <v>0.3313667478318056</v>
+        <v>0.3162644577575215</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>28</v>
       </c>
       <c r="E78">
-        <v>0.3298531823872581</v>
+        <v>0.3138118563511221</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E79">
-        <v>0.3215296153188464</v>
+        <v>0.3103517772499298</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E80">
-        <v>0.3162644577575215</v>
+        <v>0.3068804397162231</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3124937561813798</v>
+        <v>0.3049758635401958</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>0.3124937561813798</v>
+        <v>0.30320230960249</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E83">
-        <v>0.3121419643447615</v>
+        <v>0.2985871208741012</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>0.3119199021057664</v>
+        <v>0.2981859728176057</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>0.3115639975584025</v>
+        <v>0.2977094440953122</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.3107277331329326</v>
+        <v>0.2965235777142334</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
       </c>
       <c r="E87">
-        <v>0.3105982074212003</v>
+        <v>0.2947822106643104</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>0.3065962114220912</v>
+        <v>0.2862871921554151</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>0.3041324488165261</v>
+        <v>0.2857379613620675</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E90">
-        <v>0.3041236806329591</v>
+        <v>0.2853718363367474</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E91">
-        <v>0.3035444817755525</v>
+        <v>0.2833200732938167</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E92">
-        <v>0.3027279386706024</v>
+        <v>0.2811364603017457</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E93">
-        <v>0.3017217205140613</v>
+        <v>0.2764439343430092</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E94">
-        <v>0.3010310427226099</v>
+        <v>0.2764439343430092</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
         <v>28</v>
       </c>
       <c r="E95">
-        <v>0.3005667157338083</v>
+        <v>0.273299562025509</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>0.2911503743946751</v>
+        <v>0.2720363855560753</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E97">
-        <v>0.2899441344157127</v>
+        <v>0.2687108929280436</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D98" t="s">
         <v>27</v>
       </c>
       <c r="E98">
-        <v>0.2887079143751485</v>
+        <v>0.2668620464066906</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E99">
-        <v>0.2883651994091365</v>
+        <v>0.2653495261873812</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E100">
-        <v>0.2825842809715484</v>
+        <v>0.2633265713129258</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E101">
-        <v>0.2786191738595415</v>
+        <v>0.2629126849629871</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
         <v>26</v>
       </c>
       <c r="E102">
-        <v>0.2741849933248054</v>
+        <v>0.2613750377155031</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E103">
-        <v>0.2737209277799552</v>
+        <v>0.2565159032445837</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2720363855560753</v>
+        <v>0.2550506660137747</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E105">
-        <v>0.271823769266765</v>
+        <v>0.2550450172785316</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2715908558770724</v>
+        <v>0.2532324862670197</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E107">
-        <v>0.2707114174408731</v>
+        <v>0.252147861247643</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E108">
-        <v>0.2686076546751267</v>
+        <v>0.2518157343180544</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E109">
-        <v>0.2660113507310025</v>
+        <v>0.2515537601548797</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
         <v>29</v>
       </c>
       <c r="E110">
-        <v>0.2590757489370107</v>
+        <v>0.2510578207331812</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E111">
-        <v>0.2584084661821786</v>
+        <v>0.2483396390712402</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E112">
-        <v>0.256806954656409</v>
+        <v>0.2470840521397832</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s">
         <v>29</v>
       </c>
       <c r="E113">
-        <v>0.2564974588309117</v>
+        <v>0.2399421046064897</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>22</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2543944906128111</v>
+        <v>0.2394691061021288</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2416,10 +2416,10 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E115">
-        <v>0.2541440889108081</v>
+        <v>0.2365440599305598</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2531838048017843</v>
+        <v>0.2359208296867182</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E117">
-        <v>0.2516822852386095</v>
+        <v>0.2351353743229514</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E118">
-        <v>0.2516746856664479</v>
+        <v>0.2316563103176438</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,7 +2478,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
         <v>22</v>
@@ -2487,7 +2487,7 @@
         <v>28</v>
       </c>
       <c r="E119">
-        <v>0.2488734475444266</v>
+        <v>0.2307927416279947</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
       </c>
       <c r="E120">
-        <v>0.2485000543297277</v>
+        <v>0.2265825373985038</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.2467353829408241</v>
+        <v>0.2262637595217508</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2430708160706274</v>
+        <v>0.2261107634142188</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2368821672557392</v>
+        <v>0.2255467459073301</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
         <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0.233515147464447</v>
+        <v>0.2255431129254403</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E125">
-        <v>0.2314717702524966</v>
+        <v>0.224570550520469</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2311888316118858</v>
+        <v>0.2239226984146784</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2311888316118858</v>
+        <v>0.223816566459927</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E128">
-        <v>0.2298452183950055</v>
+        <v>0.222969204657315</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
         <v>28</v>
       </c>
       <c r="E129">
-        <v>0.2297024725023106</v>
+        <v>0.2226936502362961</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2295302279345887</v>
+        <v>0.2219221796506555</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
         <v>29</v>
       </c>
       <c r="E131">
-        <v>0.228614260443243</v>
+        <v>0.2213781450639316</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
         <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E132">
-        <v>0.2282589516081418</v>
+        <v>0.2213035102036595</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2719,13 +2719,13 @@
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.227713198959834</v>
+        <v>0.2199925081310052</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2267055227465139</v>
+        <v>0.219972563288285</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E135">
-        <v>0.2255302599452119</v>
+        <v>0.2197854568035101</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E136">
-        <v>0.2253631560196256</v>
+        <v>0.2192415919780793</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2787,13 +2787,13 @@
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E137">
-        <v>0.2251504066132673</v>
+        <v>0.2188075341463303</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
         <v>28</v>
       </c>
       <c r="E138">
-        <v>0.2246490718835835</v>
+        <v>0.2182513468851341</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2821,13 +2821,13 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
       </c>
       <c r="E139">
-        <v>0.224249306114267</v>
+        <v>0.2170966027605382</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E140">
-        <v>0.224067341250404</v>
+        <v>0.2142957560883343</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2240448222697635</v>
+        <v>0.2138069340306716</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2875,10 +2875,10 @@
         <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E142">
-        <v>0.2236067977499791</v>
+        <v>0.213522034997394</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D143" t="s">
         <v>28</v>
       </c>
       <c r="E143">
-        <v>0.2234078424364421</v>
+        <v>0.213394057846111</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E144">
-        <v>0.2233309711438674</v>
+        <v>0.2107622197091014</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0.2222180147408507</v>
+        <v>0.2106978237031802</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E146">
-        <v>0.2222009604159817</v>
+        <v>0.2101441541602518</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
         <v>29</v>
       </c>
       <c r="E147">
-        <v>0.2220204782616089</v>
+        <v>0.2092502645294097</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D148" t="s">
         <v>28</v>
       </c>
       <c r="E148">
-        <v>0.2216814291258093</v>
+        <v>0.209089083377646</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E149">
-        <v>0.220585030283356</v>
+        <v>0.2074077578159561</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3008,13 +3008,13 @@
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E150">
-        <v>0.2203585999769275</v>
+        <v>0.2066734221125035</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E151">
-        <v>0.2183713527776058</v>
+        <v>0.2063158126944152</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E152">
-        <v>0.2181604997847929</v>
+        <v>0.2045994942812408</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3059,13 +3059,13 @@
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
         <v>28</v>
       </c>
       <c r="E153">
-        <v>0.2164282278193158</v>
+        <v>0.2043007698563269</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>0.2153742922003806</v>
+        <v>0.2042029561576996</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E155">
-        <v>0.213387807038317</v>
+        <v>0.2024526133438532</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E156">
-        <v>0.2104476016586729</v>
+        <v>0.2001354555172496</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.2085462228849055</v>
+        <v>0.1988978398204681</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E158">
-        <v>0.2081453680846009</v>
+        <v>0.198656516523961</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3161,13 +3161,13 @@
         <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
         <v>29</v>
       </c>
       <c r="E159">
-        <v>0.2075524276026595</v>
+        <v>0.1983980676009769</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
         <v>28</v>
       </c>
       <c r="E160">
-        <v>0.20729856311015</v>
+        <v>0.1976103974777159</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3195,13 +3195,13 @@
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D161" t="s">
         <v>29</v>
       </c>
       <c r="E161">
-        <v>0.2069869072813986</v>
+        <v>0.1974029850834676</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E162">
-        <v>0.2068338917791361</v>
+        <v>0.1971862942539244</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3229,13 +3229,13 @@
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D163" t="s">
         <v>29</v>
       </c>
       <c r="E163">
-        <v>0.2063232091575441</v>
+        <v>0.1968023980300512</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C164" t="s">
         <v>18</v>
       </c>
       <c r="D164" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E164">
-        <v>0.2060435194156956</v>
+        <v>0.1963457642557583</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E165">
-        <v>0.205014896083334</v>
+        <v>0.196149817600457</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3280,13 +3280,13 @@
         <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E166">
-        <v>0.2040720501528012</v>
+        <v>0.1953578877338646</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
       </c>
       <c r="E167">
-        <v>0.2035643290203289</v>
+        <v>0.1945486862681822</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
         <v>28</v>
       </c>
       <c r="E168">
-        <v>0.2029260416145783</v>
+        <v>0.1942927600238155</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3331,13 +3331,13 @@
         <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E169">
-        <v>0.2028767957868794</v>
+        <v>0.1939945892220386</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
         <v>28</v>
       </c>
       <c r="E170">
-        <v>0.2028308420260705</v>
+        <v>0.1930178560937374</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
         <v>22</v>
       </c>
       <c r="D171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E171">
-        <v>0.2025247949829529</v>
+        <v>0.186047652149832</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
         <v>28</v>
       </c>
       <c r="E172">
-        <v>0.2008935776302772</v>
+        <v>0.1859531341633322</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D173" t="s">
         <v>28</v>
       </c>
       <c r="E173">
-        <v>0.2005585946179904</v>
+        <v>0.1844754428516572</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E174">
-        <v>0.1999469806788894</v>
+        <v>0.1806036752775501</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E175">
-        <v>0.1998811831354809</v>
+        <v>0.1794784079288777</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E176">
-        <v>0.1997671537211967</v>
+        <v>0.1794368459582166</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3467,13 +3467,13 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D177" t="s">
         <v>29</v>
       </c>
       <c r="E177">
-        <v>0.1997415383534373</v>
+        <v>0.1788634240083213</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E178">
-        <v>0.19952768844966</v>
+        <v>0.1787825818066093</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E179">
-        <v>0.1988982182434142</v>
+        <v>0.1787710425538318</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E180">
-        <v>0.1980629560210645</v>
+        <v>0.1787592996687029</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
       </c>
       <c r="E181">
-        <v>0.1968600672180794</v>
+        <v>0.1787062845587744</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D182" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E182">
-        <v>0.196149817600457</v>
+        <v>0.1772957111992245</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3569,13 +3569,13 @@
         <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D183" t="s">
         <v>28</v>
       </c>
       <c r="E183">
-        <v>0.1941847719624786</v>
+        <v>0.1764930623988749</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
         <v>21</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E184">
-        <v>0.1932293432643856</v>
+        <v>0.174807445170074</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
         <v>28</v>
       </c>
       <c r="E185">
-        <v>0.1924380718489175</v>
+        <v>0.1745193083466892</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
         <v>19</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E186">
-        <v>0.1920869434173333</v>
+        <v>0.1743807010724729</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E187">
-        <v>0.1917562851513356</v>
+        <v>0.1740319066683539</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E188">
-        <v>0.189132889594475</v>
+        <v>0.1729967272012578</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D189" t="s">
         <v>26</v>
       </c>
       <c r="E189">
-        <v>0.1868601895927039</v>
+        <v>0.172094973564365</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
         <v>28</v>
       </c>
       <c r="E190">
-        <v>0.1863014250142975</v>
+        <v>0.1714710359333796</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E191">
-        <v>0.1844002103570884</v>
+        <v>0.1704086782513463</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E192">
-        <v>0.183964024127098</v>
+        <v>0.1703011132179216</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
         <v>26</v>
       </c>
       <c r="E193">
-        <v>0.1838623544788684</v>
+        <v>0.1690883935258465</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3756,13 +3756,13 @@
         <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E194">
-        <v>0.1829177415214647</v>
+        <v>0.1678822841087678</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E195">
-        <v>0.1807969279659775</v>
+        <v>0.1667728950302721</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E196">
-        <v>0.1804460387767451</v>
+        <v>0.1663734677694742</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E197">
-        <v>0.1798565372440173</v>
+        <v>0.1659285084025307</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D198" t="s">
         <v>29</v>
       </c>
       <c r="E198">
-        <v>0.1782290848925787</v>
+        <v>0.1635847069514829</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D199" t="s">
         <v>28</v>
       </c>
       <c r="E199">
-        <v>0.1775250736954625</v>
+        <v>0.1591581044019794</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D200" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E200">
-        <v>0.1773102916454292</v>
+        <v>0.1591146781648326</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C201" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E201">
-        <v>0.1763082498734271</v>
+        <v>0.1588939104542953</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D202" t="s">
         <v>28</v>
       </c>
       <c r="E202">
-        <v>0.1761126776528592</v>
+        <v>0.1552722603408653</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
         <v>28</v>
       </c>
       <c r="E203">
-        <v>0.1758869272889862</v>
+        <v>0.1547004397352611</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D204" t="s">
         <v>29</v>
       </c>
       <c r="E204">
-        <v>0.1731758828206484</v>
+        <v>0.1540053185405528</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D205" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E205">
-        <v>0.1729195393547065</v>
+        <v>0.1536885021859065</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C206" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D206" t="s">
         <v>28</v>
       </c>
       <c r="E206">
-        <v>0.1722700873046673</v>
+        <v>0.1533828902659199</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C207" t="s">
         <v>18</v>
       </c>
       <c r="D207" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1716232363300167</v>
+        <v>0.1523038515167409</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C208" t="s">
         <v>21</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E208">
-        <v>0.1709688244790823</v>
+        <v>0.1522773975253763</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D209" t="s">
         <v>26</v>
       </c>
       <c r="E209">
-        <v>0.1688893816825798</v>
+        <v>0.1520962974370563</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>25</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E210">
-        <v>0.1688135019806909</v>
+        <v>0.1520188280530754</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C211" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E211">
-        <v>0.166679965549009</v>
+        <v>0.15130318500903</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E212">
-        <v>0.1660381180511653</v>
+        <v>0.1507147347475153</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,7 +4076,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>21</v>
@@ -4085,7 +4085,7 @@
         <v>28</v>
       </c>
       <c r="E213">
-        <v>0.164091267858772</v>
+        <v>0.1492818211930192</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E214">
-        <v>0.1629043013730336</v>
+        <v>0.1491695986714645</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D215" t="s">
         <v>28</v>
       </c>
       <c r="E215">
-        <v>0.1598645163805546</v>
+        <v>0.1485539826821675</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
         <v>26</v>
       </c>
       <c r="E216">
-        <v>0.1597480729927892</v>
+        <v>0.1485287704728602</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D217" t="s">
         <v>26</v>
       </c>
       <c r="E217">
-        <v>0.1588995901673116</v>
+        <v>0.147450217272884</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E218">
-        <v>0.1580208610449516</v>
+        <v>0.147433955346301</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C219" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1579305679289715</v>
+        <v>0.1471913615477361</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D220" t="s">
         <v>29</v>
       </c>
       <c r="E220">
-        <v>0.157769481780829</v>
+        <v>0.1469636976382369</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
         <v>24</v>
       </c>
       <c r="D221" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E221">
-        <v>0.1566726783509268</v>
+        <v>0.1465865556741199</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E222">
-        <v>0.15545352449197</v>
+        <v>0.1464982902700794</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E223">
-        <v>0.1534844593111645</v>
+        <v>0.1463563725753928</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1530442603445072</v>
+        <v>0.1453012682881633</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C225" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E225">
-        <v>0.152034636859021</v>
+        <v>0.1444596886960414</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E226">
-        <v>0.1501371442740627</v>
+        <v>0.1443364815937879</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E227">
-        <v>0.1479596289689017</v>
+        <v>0.1442627417111422</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,7 +4331,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C228" t="s">
         <v>19</v>
@@ -4340,7 +4340,7 @@
         <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1476992348302372</v>
+        <v>0.1437405280696672</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D229" t="s">
         <v>28</v>
       </c>
       <c r="E229">
-        <v>0.147370922620897</v>
+        <v>0.1432047669930978</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1468052657811433</v>
+        <v>0.1429360218941044</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D231" t="s">
         <v>29</v>
       </c>
       <c r="E231">
-        <v>0.1446820517445834</v>
+        <v>0.1424472260667545</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C232" t="s">
         <v>20</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0.144620431681723</v>
+        <v>0.1420865425893079</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C233" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D233" t="s">
         <v>29</v>
       </c>
       <c r="E233">
-        <v>0.1441994243489133</v>
+        <v>0.1418898029481736</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4442,7 +4442,7 @@
         <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1441581878853423</v>
+        <v>0.1417406952913688</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4453,13 +4453,13 @@
         <v>17</v>
       </c>
       <c r="C235" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D235" t="s">
         <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1437253210971297</v>
+        <v>0.1411714657305683</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D236" t="s">
         <v>28</v>
       </c>
       <c r="E236">
-        <v>0.143165242304125</v>
+        <v>0.140759504692866</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D237" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1428338869528963</v>
+        <v>0.1403610661360631</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E238">
-        <v>0.1428192023115413</v>
+        <v>0.1398606150828812</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D239" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E239">
-        <v>0.14118964956949</v>
+        <v>0.1397133135899294</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D240" t="s">
         <v>26</v>
       </c>
       <c r="E240">
-        <v>0.1411841567694144</v>
+        <v>0.1392149614987649</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D241" t="s">
         <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1409428344501991</v>
+        <v>0.1382760253731488</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,7 +4569,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C242" t="s">
         <v>20</v>
@@ -4578,7 +4578,7 @@
         <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1405406756580711</v>
+        <v>0.1382623567363666</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E243">
-        <v>0.1404058792825769</v>
+        <v>0.1379212996768843</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E244">
-        <v>0.1398274968098878</v>
+        <v>0.1372748992325817</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E245">
-        <v>0.1397329990487992</v>
+        <v>0.1371054645715201</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E246">
-        <v>0.1397113997579353</v>
+        <v>0.1370984432927523</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E247">
-        <v>0.1391543260418023</v>
+        <v>0.1367313116093236</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E248">
-        <v>0.138552162946917</v>
+        <v>0.1361315549925681</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C249" t="s">
         <v>19</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1380153106437925</v>
+        <v>0.1360245855434449</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D250" t="s">
         <v>29</v>
       </c>
       <c r="E250">
-        <v>0.1378275436598239</v>
+        <v>0.135581620297111</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D251" t="s">
         <v>28</v>
       </c>
       <c r="E251">
-        <v>0.1376592504902683</v>
+        <v>0.1355689425762072</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C252" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D252" t="s">
         <v>29</v>
       </c>
       <c r="E252">
-        <v>0.1373596782033801</v>
+        <v>0.1353433862401113</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C253" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D253" t="s">
         <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1367491864491023</v>
+        <v>0.1337859617508636</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4776,13 +4776,13 @@
         <v>14</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D254" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1367468829356925</v>
+        <v>0.1337200776197916</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D255" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E255">
-        <v>0.1366297673078967</v>
+        <v>0.1335476950707515</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D256" t="s">
         <v>26</v>
       </c>
       <c r="E256">
-        <v>0.1366032735813385</v>
+        <v>0.1329014683735179</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4827,13 +4827,13 @@
         <v>17</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1363885062519779</v>
+        <v>0.1322339481307392</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C258" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D258" t="s">
         <v>29</v>
       </c>
       <c r="E258">
-        <v>0.1354602820596289</v>
+        <v>0.1310608825301317</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C259" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E259">
-        <v>0.1351387284227256</v>
+        <v>0.1294983080679305</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C260" t="s">
         <v>19</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E260">
-        <v>0.1340103471995501</v>
+        <v>0.1293365583005646</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C261" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D261" t="s">
         <v>29</v>
       </c>
       <c r="E261">
-        <v>0.1337417171784955</v>
+        <v>0.1292315846945813</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D262" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1328124427551641</v>
+        <v>0.1280449278351059</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4932,10 +4932,10 @@
         <v>23</v>
       </c>
       <c r="D263" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E263">
-        <v>0.1321386073294698</v>
+        <v>0.1270260052039936</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C264" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
         <v>26</v>
       </c>
       <c r="E264">
-        <v>0.1312979426087299</v>
+        <v>0.1263168563601241</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D265" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1312334645668636</v>
+        <v>0.125953340688031</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C266" t="s">
         <v>23</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1311203808974951</v>
+        <v>0.1258209424980514</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C267" t="s">
         <v>22</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E267">
-        <v>0.1309661951670265</v>
+        <v>0.1244778688574703</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5014,13 +5014,13 @@
         <v>15</v>
       </c>
       <c r="C268" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D268" t="s">
         <v>28</v>
       </c>
       <c r="E268">
-        <v>0.1305818389328501</v>
+        <v>0.1244520206018509</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E269">
-        <v>0.130565077644056</v>
+        <v>0.1235474364077453</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E270">
-        <v>0.1302125855311451</v>
+        <v>0.123215140227968</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C271" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D271" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1299132770532106</v>
+        <v>0.1227662489721592</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D272" t="s">
         <v>29</v>
       </c>
       <c r="E272">
-        <v>0.1291436984602639</v>
+        <v>0.1219991562600818</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D273" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E273">
-        <v>0.1290133013156725</v>
+        <v>0.1209521941822812</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C274" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
         <v>29</v>
       </c>
       <c r="E274">
-        <v>0.1271133460032727</v>
+        <v>0.1207321588401459</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C275" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D275" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E275">
-        <v>0.1257252976091182</v>
+        <v>0.1200643910549488</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D276" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E276">
-        <v>0.1252394179492462</v>
+        <v>0.1197482314602472</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D277" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E277">
-        <v>0.124411680023267</v>
+        <v>0.1193714281113298</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D278" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1241572593414444</v>
+        <v>0.1191074466612025</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5201,13 +5201,13 @@
         <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E279">
-        <v>0.1241530774758465</v>
+        <v>0.1186351146130818</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E280">
-        <v>0.123688306143348</v>
+        <v>0.1184044154640412</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C281" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D281" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E281">
-        <v>0.1233196194996641</v>
+        <v>0.1182294958505085</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C282" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E282">
-        <v>0.123160660918604</v>
+        <v>0.1177541285435607</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D283" t="s">
         <v>29</v>
       </c>
       <c r="E283">
-        <v>0.1229445866460608</v>
+        <v>0.1172244373098757</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C284" t="s">
         <v>23</v>
       </c>
       <c r="D284" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E284">
-        <v>0.1226996310634552</v>
+        <v>0.1168245881094356</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C285" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D285" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E285">
-        <v>0.1222816949190765</v>
+        <v>0.1155393351696041</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5320,13 +5320,13 @@
         <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D286" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1219157828259949</v>
+        <v>0.1142955573041783</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C287" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D287" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E287">
-        <v>0.1211019037932743</v>
+        <v>0.1139132348666372</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D288" t="s">
         <v>26</v>
       </c>
       <c r="E288">
-        <v>0.1210530866790849</v>
+        <v>0.1137866246444719</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C289" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D289" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E289">
-        <v>0.1209752996346695</v>
+        <v>0.1123491030576162</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5388,13 +5388,13 @@
         <v>12</v>
       </c>
       <c r="C290" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D290" t="s">
         <v>29</v>
       </c>
       <c r="E290">
-        <v>0.120006185684599</v>
+        <v>0.1119128597872443</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C291" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D291" t="s">
         <v>26</v>
       </c>
       <c r="E291">
-        <v>0.1183919739644617</v>
+        <v>0.111844622685908</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5422,13 +5422,13 @@
         <v>15</v>
       </c>
       <c r="C292" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D292" t="s">
         <v>29</v>
       </c>
       <c r="E292">
-        <v>0.1183298765858116</v>
+        <v>0.1109411528346088</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5439,13 +5439,13 @@
         <v>12</v>
       </c>
       <c r="C293" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D293" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E293">
-        <v>0.1182675399854145</v>
+        <v>0.1108723518987065</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C294" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D294" t="s">
         <v>28</v>
       </c>
       <c r="E294">
-        <v>0.118049007369706</v>
+        <v>0.1089533417830969</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C295" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D295" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1177540401733682</v>
+        <v>0.108543189600476</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C296" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D296" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E296">
-        <v>0.1177435151675152</v>
+        <v>0.1084970257175609</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C297" t="s">
         <v>24</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E297">
-        <v>0.1168822878595201</v>
+        <v>0.1076609628078686</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C298" t="s">
         <v>23</v>
       </c>
       <c r="D298" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E298">
-        <v>0.1168010314751001</v>
+        <v>0.1059965610047277</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D299" t="s">
         <v>29</v>
       </c>
       <c r="E299">
-        <v>0.1165393120047798</v>
+        <v>0.1058106594989035</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C300" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D300" t="s">
         <v>28</v>
       </c>
       <c r="E300">
-        <v>0.1161981363145479</v>
+        <v>0.1055303129964563</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C301" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D301" t="s">
         <v>26</v>
       </c>
       <c r="E301">
-        <v>0.1148828995245694</v>
+        <v>0.1043404645180357</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C302" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D302" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E302">
-        <v>0.1143906295456349</v>
+        <v>0.1042478913489617</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C303" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D303" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E303">
-        <v>0.1142565218993627</v>
+        <v>0.1036526776276781</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C304" t="s">
         <v>23</v>
       </c>
       <c r="D304" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E304">
-        <v>0.113443331916762</v>
+        <v>0.1008723776561336</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C305" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E305">
-        <v>0.1131145875706738</v>
+        <v>0.099760093982333</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C306" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D306" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E306">
-        <v>0.1126162567728806</v>
+        <v>0.09950356533620962</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C307" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D307" t="s">
         <v>27</v>
       </c>
       <c r="E307">
-        <v>0.1117475390669186</v>
+        <v>0.09897433186107901</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C308" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D308" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E308">
-        <v>0.1117208653765674</v>
+        <v>0.09824755275458989</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C309" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D309" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E309">
-        <v>0.1112143889767148</v>
+        <v>0.09804486810550241</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,7 +5725,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C310" t="s">
         <v>21</v>
@@ -5734,7 +5734,7 @@
         <v>28</v>
       </c>
       <c r="E310">
-        <v>0.1107036599156615</v>
+        <v>0.09668681180831225</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C311" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D311" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E311">
-        <v>0.1102194973491893</v>
+        <v>0.09562382450247414</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C312" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D312" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E312">
-        <v>0.1088429025233847</v>
+        <v>0.09505489553310155</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C313" t="s">
         <v>22</v>
       </c>
       <c r="D313" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E313">
-        <v>0.1085148621597993</v>
+        <v>0.09504789940915691</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C314" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D314" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E314">
-        <v>0.108440413678488</v>
+        <v>0.09359846621172253</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D315" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E315">
-        <v>0.1083822613502279</v>
+        <v>0.09318040019160838</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C316" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D316" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E316">
-        <v>0.1082829311613846</v>
+        <v>0.09224598542809752</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C317" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D317" t="s">
         <v>26</v>
       </c>
       <c r="E317">
-        <v>0.1081898914542541</v>
+        <v>0.09215993725326883</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C318" t="s">
         <v>24</v>
       </c>
       <c r="D318" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E318">
-        <v>0.1075661981922431</v>
+        <v>0.09081847441965619</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C319" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D319" t="s">
         <v>26</v>
       </c>
       <c r="E319">
-        <v>0.1073389743689816</v>
+        <v>0.08933749063110588</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5898,13 +5898,13 @@
         <v>15</v>
       </c>
       <c r="C320" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D320" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E320">
-        <v>0.1056370591671124</v>
+        <v>0.08918626982698352</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C321" t="s">
         <v>25</v>
       </c>
       <c r="D321" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E321">
-        <v>0.105242023663623</v>
+        <v>0.08783442488687636</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C322" t="s">
         <v>19</v>
       </c>
       <c r="D322" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E322">
-        <v>0.1050716639179655</v>
+        <v>0.0866398280738442</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D323" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E323">
-        <v>0.1046369188247208</v>
+        <v>0.08612769089473646</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5966,13 +5966,13 @@
         <v>17</v>
       </c>
       <c r="C324" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D324" t="s">
         <v>26</v>
       </c>
       <c r="E324">
-        <v>0.1045475528402432</v>
+        <v>0.08507090530256091</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5983,13 +5983,13 @@
         <v>12</v>
       </c>
       <c r="C325" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D325" t="s">
         <v>28</v>
       </c>
       <c r="E325">
-        <v>0.1043593720145496</v>
+        <v>0.08309288934863548</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6000,13 +6000,13 @@
         <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D326" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E326">
-        <v>0.1041538418821576</v>
+        <v>0.08159817881150665</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6017,13 +6017,13 @@
         <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D327" t="s">
         <v>29</v>
       </c>
       <c r="E327">
-        <v>0.1040159627163937</v>
+        <v>0.08060375652660294</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C328" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D328" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E328">
-        <v>0.1031014589822542</v>
+        <v>0.0796517643338049</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D329" t="s">
         <v>26</v>
       </c>
       <c r="E329">
-        <v>0.102422195279905</v>
+        <v>0.0789803885485803</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C330" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D330" t="s">
         <v>26</v>
       </c>
       <c r="E330">
-        <v>0.102007332156166</v>
+        <v>0.07856239579324524</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C331" t="s">
         <v>21</v>
       </c>
       <c r="D331" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E331">
-        <v>0.1017894350196889</v>
+        <v>0.07841185665612348</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C332" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D332" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E332">
-        <v>0.1001254573523278</v>
+        <v>0.07816018515132755</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C333" t="s">
         <v>22</v>
       </c>
       <c r="D333" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E333">
-        <v>0.09922122443488871</v>
+        <v>0.07736629349694496</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C334" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D334" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E334">
-        <v>0.09851183624446508</v>
+        <v>0.07645792208188344</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C335" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D335" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E335">
-        <v>0.09759906743731223</v>
+        <v>0.07619161394525741</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C336" t="s">
         <v>25</v>
       </c>
       <c r="D336" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E336">
-        <v>0.09710303407084393</v>
+        <v>0.07617420404190185</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C337" t="s">
         <v>24</v>
       </c>
       <c r="D337" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E337">
-        <v>0.09623448424251213</v>
+        <v>0.07438503905515191</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C338" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D338" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E338">
-        <v>0.0942223920552166</v>
+        <v>0.07380310840907181</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C339" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D339" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E339">
-        <v>0.09416357431742733</v>
+        <v>0.07310121221000181</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,7 +6235,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C340" t="s">
         <v>23</v>
@@ -6244,7 +6244,7 @@
         <v>26</v>
       </c>
       <c r="E340">
-        <v>0.09395418578731196</v>
+        <v>0.07282916657614999</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C341" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D341" t="s">
         <v>26</v>
       </c>
       <c r="E341">
-        <v>0.09169421466265534</v>
+        <v>0.07232509096355348</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6272,13 +6272,13 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D342" t="s">
         <v>26</v>
       </c>
       <c r="E342">
-        <v>0.09142925399675095</v>
+        <v>0.07063164615416104</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C343" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D343" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E343">
-        <v>0.09115028723518112</v>
+        <v>0.07043251655446488</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C344" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D344" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E344">
-        <v>0.08953558015623465</v>
+        <v>0.07003201453862938</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C345" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D345" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E345">
-        <v>0.0893752827740458</v>
+        <v>0.06944279729054237</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6346,7 +6346,7 @@
         <v>26</v>
       </c>
       <c r="E346">
-        <v>0.08929250959880695</v>
+        <v>0.06909565564578858</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C347" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D347" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E347">
-        <v>0.08890409652489485</v>
+        <v>0.06820205601576394</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C348" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D348" t="s">
         <v>26</v>
       </c>
       <c r="E348">
-        <v>0.08803353054725321</v>
+        <v>0.06671414466830163</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D349" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E349">
-        <v>0.08632436832807061</v>
+        <v>0.06631209899306602</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C350" t="s">
         <v>21</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E350">
-        <v>0.08630697272136593</v>
+        <v>0.06518213181650169</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C351" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D351" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E351">
-        <v>0.08573475774099425</v>
+        <v>0.0643762026677471</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C352" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D352" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E352">
-        <v>0.0832945739375881</v>
+        <v>0.06419074602638247</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C353" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.08246894649765708</v>
+        <v>0.06323315311346527</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C354" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D354" t="s">
         <v>28</v>
       </c>
       <c r="E354">
-        <v>0.08120201598820784</v>
+        <v>0.0603278120427445</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C355" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D355" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E355">
-        <v>0.07973121702072614</v>
+        <v>0.06002665276356959</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C356" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D356" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E356">
-        <v>0.07910435997795599</v>
+        <v>0.05998701626687566</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,7 +6524,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C357" t="s">
         <v>22</v>
@@ -6533,7 +6533,7 @@
         <v>26</v>
       </c>
       <c r="E357">
-        <v>0.07831601355981901</v>
+        <v>0.05861839187536689</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C358" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D358" t="s">
         <v>26</v>
       </c>
       <c r="E358">
-        <v>0.07785597796952534</v>
+        <v>0.05606858942771233</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6561,13 +6561,13 @@
         <v>13</v>
       </c>
       <c r="C359" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D359" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E359">
-        <v>0.07736691415665554</v>
+        <v>0.05460215897630925</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C360" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D360" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E360">
-        <v>0.07712465002537189</v>
+        <v>0.05434934407552307</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C361" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D361" t="s">
         <v>26</v>
       </c>
       <c r="E361">
-        <v>0.0749008938601851</v>
+        <v>0.05201956655242836</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C362" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D362" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E362">
-        <v>0.07343718199300039</v>
+        <v>0.05126910883113989</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C363" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D363" t="s">
         <v>26</v>
       </c>
       <c r="E363">
-        <v>0.073408573904008</v>
+        <v>0.04920528092471401</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C364" t="s">
         <v>23</v>
       </c>
       <c r="D364" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E364">
-        <v>0.07247859341779224</v>
+        <v>0.03795918276638675</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C365" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D365" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E365">
-        <v>0.06820165112445234</v>
+        <v>0.03191305889128899</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C366" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D366" t="s">
         <v>26</v>
       </c>
       <c r="E366">
-        <v>0.06663223090261067</v>
+        <v>0.03095750615429653</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C367" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D367" t="s">
         <v>26</v>
       </c>
       <c r="E367">
-        <v>0.06648507491320343</v>
+        <v>0.0300299645198793</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C368" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D368" t="s">
         <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06590574499350099</v>
+        <v>0.02991517651732217</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C369" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D369" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E369">
-        <v>0.06474467756634238</v>
+        <v>0.02215401053858236</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C370" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D370" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E370">
-        <v>0.06460886698797914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C371" t="s">
         <v>22</v>
       </c>
       <c r="D371" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E371">
-        <v>0.0644153738354292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C372" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D372" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E372">
-        <v>0.06427365399720852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C373" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D373" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E373">
-        <v>0.06373377830075515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C374" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D374" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E374">
-        <v>0.06190192663758511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D375" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E375">
-        <v>0.05953309989654477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D376" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E376">
-        <v>0.05808064695120545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C377" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D377" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E377">
-        <v>0.04938673614862191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C378" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D378" t="s">
         <v>27</v>
       </c>
       <c r="E378">
-        <v>0.04452246459467245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C379" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D379" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E379">
-        <v>0.0430299727842025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C380" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D380" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E380">
-        <v>0.02142468048958082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C381" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D381" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E381">
-        <v>0.02100573074813799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C382" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D382" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E382">
-        <v>0.02067738009230977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C383" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D383" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E383">
-        <v>0.01928435932445998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C384" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D384" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E384">
-        <v>0.01700830215783609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C385" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D385" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E385">
-        <v>0.01637354956699057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C386" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C387" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,7 +7051,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C388" t="s">
         <v>25</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C389" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C390" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C391" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C392" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C393" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7156,7 +7156,7 @@
         <v>8</v>
       </c>
       <c r="C394" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,10 +7170,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C395" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D395" t="s">
         <v>27</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C396" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C397" t="s">
         <v>22</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C398" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C399" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,7 +7255,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C400" t="s">
         <v>25</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C401" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C402" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C403" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C404" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C405" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,7 +7357,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C406" t="s">
         <v>22</v>
@@ -7374,7 +7374,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C407" t="s">
         <v>25</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C408" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C409" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C410" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,10 +7442,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C411" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D411" t="s">
         <v>27</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C412" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C413" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C414" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C415" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C416" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
